--- a/medicine/Sexualité et sexologie/Efficacité_des_méthodes_contraceptives/Efficacité_des_méthodes_contraceptives.xlsx
+++ b/medicine/Sexualité et sexologie/Efficacité_des_méthodes_contraceptives/Efficacité_des_méthodes_contraceptives.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_des_m%C3%A9thodes_contraceptives</t>
+          <t>Efficacité_des_méthodes_contraceptives</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'efficacité des méthodes contraceptives désigne la performance des moyens utilisés en vue d'une contraception. Elle se mesure par l'indice de Pearl, qui donne le nombre de grossesses pour 100 femmes par année d'utilisation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_des_m%C3%A9thodes_contraceptives</t>
+          <t>Efficacité_des_méthodes_contraceptives</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Méthodologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On distingue habituellement une efficacité théorique, consécutive à l'usage correct de la méthode, et une efficacité pratique, calculée sur l'ensemble de l'échantillon, y compris les couples n'ayant pas respecté la méthode (oubli de prise de la pilule, usage incorrect du préservatif, etc.). L'efficacité pratique varie en fonction des caractéristiques de l'échantillon observé. L'indice de Pearl minore la perception des risques de grossesse la première année d'utilisation d'une méthode, risque qui est généralement plus élevé que lors des années ultérieures et il est quelquefois remplacé par des calculs se basant sur les premiers mois d'utilisation[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On distingue habituellement une efficacité théorique, consécutive à l'usage correct de la méthode, et une efficacité pratique, calculée sur l'ensemble de l'échantillon, y compris les couples n'ayant pas respecté la méthode (oubli de prise de la pilule, usage incorrect du préservatif, etc.). L'efficacité pratique varie en fonction des caractéristiques de l'échantillon observé. L'indice de Pearl minore la perception des risques de grossesse la première année d'utilisation d'une méthode, risque qui est généralement plus élevé que lors des années ultérieures et il est quelquefois remplacé par des calculs se basant sur les premiers mois d'utilisation.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_des_m%C3%A9thodes_contraceptives</t>
+          <t>Efficacité_des_méthodes_contraceptives</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Efficacité des méthodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tableau ci-dessous indique les statistiques fournies par l'Organisation mondiale de la santé dans le document intitulé Critères de recevabilité pour l'adoption et l'utilisation continue de méthodes contraceptives[2] basées sur une étude réalisée aux États-Unis, ainsi que les statistiques françaises, quand elles existent, fournies par l'HAS dans le document État des lieux des pratiques contraceptives et des freins à l’accès et au choix d’une contraception adaptée[3]. Les données correspondent au pourcentage de femmes concernées par une grossesse non intentionnelle durant la première année d’utilisation.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau ci-dessous indique les statistiques fournies par l'Organisation mondiale de la santé dans le document intitulé Critères de recevabilité pour l'adoption et l'utilisation continue de méthodes contraceptives basées sur une étude réalisée aux États-Unis, ainsi que les statistiques françaises, quand elles existent, fournies par l'HAS dans le document État des lieux des pratiques contraceptives et des freins à l’accès et au choix d’une contraception adaptée. Les données correspondent au pourcentage de femmes concernées par une grossesse non intentionnelle durant la première année d’utilisation.
 Le dispositif intra-utérin et l'implant contraceptif sont les deux méthodes contraceptives réversibles les plus efficaces. Selon la même source, 85 % des femmes qui n'utilisent aucun moyen de contrôle des naissances ont une grossesse dans l'année.
 Ni le document de la HAS, ni celui de l'OMS ne faisant de distinction entre différentes méthodes de planification familiale naturelle en usage typique, le tableau suivant présente des études scientifiques sur l'efficacité de ces méthodes :
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Efficacit%C3%A9_des_m%C3%A9thodes_contraceptives</t>
+          <t>Efficacité_des_méthodes_contraceptives</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Critique des données</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pourcentages d'efficacité des méthodes peuvent varier en fonction des études et des ensembles de personnes testées. Une étude de 2015 trouvant un taux d'échec de 0,52 % pour le DIU au cuivre[12]. « Les résultats  [de cette étude] ne sont pas forcément applicables à la France: les femmes suivies avaient en moyenne 33 ans (24% d’entre elles avaient plus de 40 ans) et seules 12% d’entre elles étaient nullipares. »[13] Une autre étude atteste de chiffres allant jusqu'à 0.8%[14]. Les statistiques des DIU s'appuient principalement sur des études anciennes ne prenant pas en compte les évolutions d'usages de ceux-ci[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pourcentages d'efficacité des méthodes peuvent varier en fonction des études et des ensembles de personnes testées. Une étude de 2015 trouvant un taux d'échec de 0,52 % pour le DIU au cuivre. « Les résultats  [de cette étude] ne sont pas forcément applicables à la France: les femmes suivies avaient en moyenne 33 ans (24% d’entre elles avaient plus de 40 ans) et seules 12% d’entre elles étaient nullipares. » Une autre étude atteste de chiffres allant jusqu'à 0.8%. Les statistiques des DIU s'appuient principalement sur des études anciennes ne prenant pas en compte les évolutions d'usages de ceux-ci.
 </t>
         </is>
       </c>
